--- a/planningss.xlsx
+++ b/planningss.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julienbeguin/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/julienbeguin/Desktop/Mon_App_Planning_Final/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBD86099-30F8-5C45-B22E-F07357798C30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8BF27104-2E3D-D84A-BB68-1AA082485EF4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4960" yWindow="720" windowWidth="38400" windowHeight="20940" xr2:uid="{C78783E1-6661-BF43-BD87-6C2ADCEC8CBE}"/>
+    <workbookView xWindow="6400" yWindow="540" windowWidth="38400" windowHeight="20940" xr2:uid="{C78783E1-6661-BF43-BD87-6C2ADCEC8CBE}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -621,7 +621,7 @@
   <dimension ref="A1:F337"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I302" sqref="I302"/>
+      <selection activeCell="J339" sqref="J339"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -665,7 +665,7 @@
         <v>16</v>
       </c>
       <c r="F2" s="1">
-        <f>E2-D2</f>
+        <f t="shared" ref="F2:F33" si="0">E2-D2</f>
         <v>0</v>
       </c>
     </row>
@@ -680,7 +680,7 @@
         <v>16</v>
       </c>
       <c r="F3" s="1">
-        <f>E3-D3</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -695,7 +695,7 @@
         <v>16</v>
       </c>
       <c r="F4" s="1">
-        <f>E4-D4</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -716,7 +716,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="F5" s="1">
-        <f>E5-D5</f>
+        <f t="shared" si="0"/>
         <v>0.12499999999999994</v>
       </c>
     </row>
@@ -731,7 +731,7 @@
         <v>16</v>
       </c>
       <c r="F6" s="1">
-        <f>E6-D6</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -746,7 +746,7 @@
         <v>16</v>
       </c>
       <c r="F7" s="1">
-        <f>E7-D7</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -761,7 +761,7 @@
         <v>16</v>
       </c>
       <c r="F8" s="1">
-        <f>E8-D8</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -783,7 +783,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="F9" s="1">
-        <f>E9-D9</f>
+        <f t="shared" si="0"/>
         <v>0.12499999999999994</v>
       </c>
     </row>
@@ -798,7 +798,7 @@
         <v>13</v>
       </c>
       <c r="F10" s="1">
-        <f>E10-D10</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -819,7 +819,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F11" s="1">
-        <f>E11-D11</f>
+        <f t="shared" si="0"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
@@ -840,7 +840,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F12" s="1">
-        <f>E12-D12</f>
+        <f t="shared" si="0"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -855,7 +855,7 @@
         <v>13</v>
       </c>
       <c r="F13" s="1">
-        <f>E13-D13</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -876,7 +876,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F14" s="1">
-        <f>E14-D14</f>
+        <f t="shared" si="0"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
@@ -893,7 +893,7 @@
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
       <c r="F15" s="1">
-        <f>E15-D15</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -914,7 +914,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F16" s="1">
-        <f>E16-D16</f>
+        <f t="shared" si="0"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -930,7 +930,7 @@
         <v>13</v>
       </c>
       <c r="F17" s="1">
-        <f>E17-D17</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -945,7 +945,7 @@
         <v>10</v>
       </c>
       <c r="F18" s="1">
-        <f>E18-D18</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -962,7 +962,7 @@
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
       <c r="F19" s="1">
-        <f>E19-D19</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -977,7 +977,7 @@
         <v>10</v>
       </c>
       <c r="F20" s="1">
-        <f>E20-D20</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -998,7 +998,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F21" s="1">
-        <f>E21-D21</f>
+        <f t="shared" si="0"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -1013,7 +1013,7 @@
         <v>10</v>
       </c>
       <c r="F22" s="1">
-        <f>E22-D22</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1030,7 +1030,7 @@
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1">
-        <f>E23-D23</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1045,7 +1045,7 @@
         <v>10</v>
       </c>
       <c r="F24" s="1">
-        <f>E24-D24</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1066,7 +1066,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F25" s="1">
-        <f>E25-D25</f>
+        <f t="shared" si="0"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -1081,7 +1081,7 @@
         <v>11</v>
       </c>
       <c r="F26" s="1">
-        <f>E26-D26</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1102,7 +1102,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F27" s="1">
-        <f>E27-D27</f>
+        <f t="shared" si="0"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
@@ -1117,7 +1117,7 @@
         <v>11</v>
       </c>
       <c r="F28" s="1">
-        <f>E28-D28</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1138,7 +1138,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F29" s="1">
-        <f>E29-D29</f>
+        <f t="shared" si="0"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -1159,7 +1159,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F30" s="1">
-        <f>E30-D30</f>
+        <f t="shared" si="0"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
@@ -1176,7 +1176,7 @@
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1">
-        <f>E31-D31</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1191,7 +1191,7 @@
         <v>11</v>
       </c>
       <c r="F32" s="1">
-        <f>E32-D32</f>
+        <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
@@ -1213,7 +1213,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F33" s="1">
-        <f>E33-D33</f>
+        <f t="shared" si="0"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -1228,7 +1228,7 @@
         <v>12</v>
       </c>
       <c r="F34" s="1">
-        <f>E34-D34</f>
+        <f t="shared" ref="F34:F57" si="1">E34-D34</f>
         <v>0</v>
       </c>
     </row>
@@ -1242,9 +1242,15 @@
       <c r="C35" t="s">
         <v>12</v>
       </c>
+      <c r="D35" s="1">
+        <v>0.4375</v>
+      </c>
+      <c r="E35" s="1">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="F35" s="1">
-        <f>E35-D35</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>0.35416666666666663</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
@@ -1264,7 +1270,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F36" s="1">
-        <f>E36-D36</f>
+        <f t="shared" si="1"/>
         <v>0.35416666666666663</v>
       </c>
     </row>
@@ -1278,15 +1284,11 @@
       <c r="C37" t="s">
         <v>12</v>
       </c>
-      <c r="D37" s="1">
-        <v>0.41666666666666669</v>
-      </c>
-      <c r="E37" s="1">
-        <v>0.79166666666666663</v>
-      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
       <c r="F37" s="1">
-        <f>E37-D37</f>
-        <v>0.37499999999999994</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -1306,7 +1308,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F38" s="1">
-        <f>E38-D38</f>
+        <f t="shared" si="1"/>
         <v>0.35416666666666663</v>
       </c>
     </row>
@@ -1321,7 +1323,7 @@
         <v>12</v>
       </c>
       <c r="F39" s="1">
-        <f>E39-D39</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1342,7 +1344,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F40" s="1">
-        <f>E40-D40</f>
+        <f t="shared" si="1"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -1360,7 +1362,7 @@
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1">
-        <f>E41-D41</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1375,7 +1377,7 @@
         <v>15</v>
       </c>
       <c r="F42" s="1">
-        <f>E42-D42</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1396,7 +1398,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F43" s="1">
-        <f>E43-D43</f>
+        <f t="shared" si="1"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -1417,7 +1419,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F44" s="1">
-        <f>E44-D44</f>
+        <f t="shared" si="1"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -1432,7 +1434,7 @@
         <v>15</v>
       </c>
       <c r="F45" s="1">
-        <f>E45-D45</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1453,7 +1455,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F46" s="1">
-        <f>E46-D46</f>
+        <f t="shared" si="1"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -1470,7 +1472,7 @@
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1">
-        <f>E47-D47</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1487,7 +1489,7 @@
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1">
-        <f>E48-D48</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1509,7 +1511,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F49" s="1">
-        <f>E49-D49</f>
+        <f t="shared" si="1"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -1524,7 +1526,7 @@
         <v>14</v>
       </c>
       <c r="F50" s="1">
-        <f>E50-D50</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1545,7 +1547,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F51" s="1">
-        <f>E51-D51</f>
+        <f t="shared" si="1"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
@@ -1566,7 +1568,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F52" s="1">
-        <f>E52-D52</f>
+        <f t="shared" si="1"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -1581,7 +1583,7 @@
         <v>14</v>
       </c>
       <c r="F53" s="1">
-        <f>E53-D53</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1602,7 +1604,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F54" s="1">
-        <f>E54-D54</f>
+        <f t="shared" si="1"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
@@ -1619,7 +1621,7 @@
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1">
-        <f>E55-D55</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1640,7 +1642,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F56" s="1">
-        <f>E56-D56</f>
+        <f t="shared" si="1"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -1656,7 +1658,7 @@
         <v>14</v>
       </c>
       <c r="F57" s="1">
-        <f>E57-D57</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1671,7 +1673,7 @@
         <v>10</v>
       </c>
       <c r="F58" s="1">
-        <f t="shared" ref="F58:F85" si="0">E58-D58</f>
+        <f t="shared" ref="F58:F85" si="2">E58-D58</f>
         <v>0</v>
       </c>
     </row>
@@ -1686,7 +1688,7 @@
         <v>11</v>
       </c>
       <c r="F59" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1701,7 +1703,7 @@
         <v>12</v>
       </c>
       <c r="F60" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1716,7 +1718,7 @@
         <v>13</v>
       </c>
       <c r="F61" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1731,7 +1733,7 @@
         <v>14</v>
       </c>
       <c r="F62" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1746,7 +1748,7 @@
         <v>15</v>
       </c>
       <c r="F63" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1761,7 +1763,7 @@
         <v>16</v>
       </c>
       <c r="F64" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1778,7 +1780,7 @@
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1799,7 +1801,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F66" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
@@ -1813,9 +1815,15 @@
       <c r="C67" t="s">
         <v>12</v>
       </c>
+      <c r="D67" s="1">
+        <v>0.4375</v>
+      </c>
+      <c r="E67" s="1">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="F67" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>0.35416666666666663</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.2">
@@ -1835,7 +1843,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F68" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
@@ -1856,7 +1864,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F69" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
@@ -1877,7 +1885,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F70" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -1892,7 +1900,7 @@
         <v>16</v>
       </c>
       <c r="F71" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1907,7 +1915,7 @@
         <v>10</v>
       </c>
       <c r="F72" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1922,7 +1930,7 @@
         <v>11</v>
       </c>
       <c r="F73" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -1943,7 +1951,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F74" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.35416666666666663</v>
       </c>
     </row>
@@ -1964,7 +1972,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F75" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -1985,7 +1993,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F76" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -2006,7 +2014,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F77" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -2021,7 +2029,7 @@
         <v>16</v>
       </c>
       <c r="F78" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2042,7 +2050,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F79" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -2063,7 +2071,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F80" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -2084,7 +2092,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F81" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -2099,7 +2107,7 @@
         <v>13</v>
       </c>
       <c r="F82" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2114,7 +2122,7 @@
         <v>14</v>
       </c>
       <c r="F83" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2129,7 +2137,7 @@
         <v>15</v>
       </c>
       <c r="F84" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
     </row>
@@ -2150,7 +2158,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="F85" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>0.12499999999999994</v>
       </c>
     </row>
@@ -2808,8 +2816,12 @@
       <c r="C123" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D123" s="6"/>
-      <c r="E123" s="6"/>
+      <c r="D123" s="1">
+        <v>0.4375</v>
+      </c>
+      <c r="E123" s="1">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="F123" s="8">
         <v>0</v>
       </c>
@@ -3653,7 +3665,7 @@
         <v>10</v>
       </c>
       <c r="F170" s="1">
-        <f t="shared" ref="F170:F233" si="1">E170-D170</f>
+        <f t="shared" ref="F170:F233" si="3">E170-D170</f>
         <v>0</v>
       </c>
     </row>
@@ -3668,7 +3680,7 @@
         <v>11</v>
       </c>
       <c r="F171" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3683,7 +3695,7 @@
         <v>12</v>
       </c>
       <c r="F172" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3698,7 +3710,7 @@
         <v>13</v>
       </c>
       <c r="F173" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3713,7 +3725,7 @@
         <v>14</v>
       </c>
       <c r="F174" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3728,7 +3740,7 @@
         <v>15</v>
       </c>
       <c r="F175" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3743,7 +3755,7 @@
         <v>16</v>
       </c>
       <c r="F176" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3760,7 +3772,7 @@
       <c r="D177" s="1"/>
       <c r="E177" s="1"/>
       <c r="F177" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3781,7 +3793,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F178" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
@@ -3795,9 +3807,15 @@
       <c r="C179" t="s">
         <v>12</v>
       </c>
+      <c r="D179" s="1">
+        <v>0.4375</v>
+      </c>
+      <c r="E179" s="1">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="F179" s="1">
-        <f t="shared" si="1"/>
-        <v>0</v>
+        <f t="shared" si="3"/>
+        <v>0.35416666666666663</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.2">
@@ -3817,7 +3835,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F180" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
@@ -3838,7 +3856,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F181" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
@@ -3859,7 +3877,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F182" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -3874,7 +3892,7 @@
         <v>16</v>
       </c>
       <c r="F183" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3889,7 +3907,7 @@
         <v>10</v>
       </c>
       <c r="F184" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3904,7 +3922,7 @@
         <v>11</v>
       </c>
       <c r="F185" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -3925,7 +3943,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F186" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.35416666666666663</v>
       </c>
     </row>
@@ -3946,7 +3964,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F187" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -3967,7 +3985,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F188" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -3988,7 +4006,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F189" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -4003,7 +4021,7 @@
         <v>16</v>
       </c>
       <c r="F190" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4024,7 +4042,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F191" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -4045,7 +4063,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F192" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -4066,7 +4084,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F193" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -4081,7 +4099,7 @@
         <v>13</v>
       </c>
       <c r="F194" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4096,7 +4114,7 @@
         <v>14</v>
       </c>
       <c r="F195" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4111,7 +4129,7 @@
         <v>15</v>
       </c>
       <c r="F196" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4132,7 +4150,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="F197" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.12499999999999994</v>
       </c>
     </row>
@@ -4147,7 +4165,7 @@
         <v>10</v>
       </c>
       <c r="F198" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4168,7 +4186,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F199" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
@@ -4189,7 +4207,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F200" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.35416666666666663</v>
       </c>
     </row>
@@ -4210,7 +4228,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F201" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
@@ -4231,7 +4249,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F202" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
@@ -4252,7 +4270,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F203" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -4267,7 +4285,7 @@
         <v>16</v>
       </c>
       <c r="F204" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4284,7 +4302,7 @@
       <c r="D205" s="1"/>
       <c r="E205" s="1"/>
       <c r="F205" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4301,7 +4319,7 @@
       <c r="D206" s="1"/>
       <c r="E206" s="1"/>
       <c r="F206" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4316,7 +4334,7 @@
         <v>12</v>
       </c>
       <c r="F207" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4333,7 +4351,7 @@
       <c r="D208" s="1"/>
       <c r="E208" s="1"/>
       <c r="F208" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4350,7 +4368,7 @@
       <c r="D209" s="1"/>
       <c r="E209" s="1"/>
       <c r="F209" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4367,7 +4385,7 @@
       <c r="D210" s="1"/>
       <c r="E210" s="1"/>
       <c r="F210" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4382,7 +4400,7 @@
         <v>16</v>
       </c>
       <c r="F211" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4397,7 +4415,7 @@
         <v>10</v>
       </c>
       <c r="F212" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4412,7 +4430,7 @@
         <v>11</v>
       </c>
       <c r="F213" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4433,7 +4451,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F214" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -4454,7 +4472,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F215" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -4475,7 +4493,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F216" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -4492,7 +4510,7 @@
       <c r="D217" s="1"/>
       <c r="E217" s="1"/>
       <c r="F217" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4507,7 +4525,7 @@
         <v>16</v>
       </c>
       <c r="F218" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4528,7 +4546,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F219" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -4537,7 +4555,7 @@
         <v>5</v>
       </c>
       <c r="B220" t="str">
-        <f t="shared" ref="B220:B225" si="2">B219</f>
+        <f t="shared" ref="B220:B225" si="4">B219</f>
         <v>S48</v>
       </c>
       <c r="C220" t="s">
@@ -4550,7 +4568,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F220" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -4568,7 +4586,7 @@
       <c r="D221" s="1"/>
       <c r="E221" s="1"/>
       <c r="F221" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4577,14 +4595,14 @@
         <v>5</v>
       </c>
       <c r="B222" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>S48</v>
       </c>
       <c r="C222" t="s">
         <v>13</v>
       </c>
       <c r="F222" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4593,14 +4611,14 @@
         <v>5</v>
       </c>
       <c r="B223" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>S48</v>
       </c>
       <c r="C223" t="s">
         <v>14</v>
       </c>
       <c r="F223" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4609,7 +4627,7 @@
         <v>5</v>
       </c>
       <c r="B224" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>S48</v>
       </c>
       <c r="C224" t="s">
@@ -4622,7 +4640,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F224" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -4631,7 +4649,7 @@
         <v>5</v>
       </c>
       <c r="B225" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>S48</v>
       </c>
       <c r="C225" t="s">
@@ -4644,7 +4662,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="F225" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0.12499999999999994</v>
       </c>
     </row>
@@ -4659,7 +4677,7 @@
         <v>10</v>
       </c>
       <c r="F226" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4674,7 +4692,7 @@
         <v>11</v>
       </c>
       <c r="F227" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4689,7 +4707,7 @@
         <v>12</v>
       </c>
       <c r="F228" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4704,7 +4722,7 @@
         <v>13</v>
       </c>
       <c r="F229" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4719,7 +4737,7 @@
         <v>14</v>
       </c>
       <c r="F230" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4734,7 +4752,7 @@
         <v>15</v>
       </c>
       <c r="F231" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4749,7 +4767,7 @@
         <v>16</v>
       </c>
       <c r="F232" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4766,7 +4784,7 @@
       <c r="D233" s="1"/>
       <c r="E233" s="1"/>
       <c r="F233" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
@@ -4787,7 +4805,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F234" s="1">
-        <f t="shared" ref="F234:F297" si="3">E234-D234</f>
+        <f t="shared" ref="F234:F297" si="5">E234-D234</f>
         <v>0.31249999999999994</v>
       </c>
     </row>
@@ -4801,9 +4819,15 @@
       <c r="C235" t="s">
         <v>12</v>
       </c>
+      <c r="D235" s="1">
+        <v>0.4375</v>
+      </c>
+      <c r="E235" s="1">
+        <v>0.79166666666666663</v>
+      </c>
       <c r="F235" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>0.35416666666666663</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.2">
@@ -4823,7 +4847,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F236" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
@@ -4844,7 +4868,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F237" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
@@ -4865,7 +4889,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F238" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -4880,7 +4904,7 @@
         <v>16</v>
       </c>
       <c r="F239" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4895,7 +4919,7 @@
         <v>10</v>
       </c>
       <c r="F240" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4910,7 +4934,7 @@
         <v>11</v>
       </c>
       <c r="F241" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -4931,7 +4955,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F242" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.35416666666666663</v>
       </c>
     </row>
@@ -4952,7 +4976,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F243" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -4973,7 +4997,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F244" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -4994,7 +5018,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F245" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -5009,7 +5033,7 @@
         <v>16</v>
       </c>
       <c r="F246" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5030,7 +5054,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F247" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -5051,7 +5075,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F248" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -5072,7 +5096,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F249" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -5087,7 +5111,7 @@
         <v>13</v>
       </c>
       <c r="F250" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5102,7 +5126,7 @@
         <v>14</v>
       </c>
       <c r="F251" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5117,7 +5141,7 @@
         <v>15</v>
       </c>
       <c r="F252" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5138,7 +5162,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="F253" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.12499999999999994</v>
       </c>
     </row>
@@ -5153,7 +5177,7 @@
         <v>10</v>
       </c>
       <c r="F254" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5162,7 +5186,7 @@
         <v>7</v>
       </c>
       <c r="B255" t="str">
-        <f t="shared" ref="B255:B274" si="4">B254</f>
+        <f t="shared" ref="B255:B274" si="6">B254</f>
         <v>S50</v>
       </c>
       <c r="C255" t="s">
@@ -5175,7 +5199,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F255" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
@@ -5184,7 +5208,7 @@
         <v>7</v>
       </c>
       <c r="B256" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>S50</v>
       </c>
       <c r="C256" t="s">
@@ -5197,7 +5221,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F256" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.35416666666666663</v>
       </c>
     </row>
@@ -5206,7 +5230,7 @@
         <v>7</v>
       </c>
       <c r="B257" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>S50</v>
       </c>
       <c r="C257" t="s">
@@ -5219,7 +5243,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F257" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
@@ -5228,7 +5252,7 @@
         <v>7</v>
       </c>
       <c r="B258" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>S50</v>
       </c>
       <c r="C258" t="s">
@@ -5241,7 +5265,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F258" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
@@ -5250,7 +5274,7 @@
         <v>7</v>
       </c>
       <c r="B259" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>S50</v>
       </c>
       <c r="C259" t="s">
@@ -5263,7 +5287,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F259" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -5272,14 +5296,14 @@
         <v>7</v>
       </c>
       <c r="B260" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>S50</v>
       </c>
       <c r="C260" t="s">
         <v>16</v>
       </c>
       <c r="F260" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5288,7 +5312,7 @@
         <v>8</v>
       </c>
       <c r="B261" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>S50</v>
       </c>
       <c r="C261" t="s">
@@ -5297,7 +5321,7 @@
       <c r="D261" s="1"/>
       <c r="E261" s="1"/>
       <c r="F261" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5306,7 +5330,7 @@
         <v>8</v>
       </c>
       <c r="B262" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>S50</v>
       </c>
       <c r="C262" t="s">
@@ -5315,7 +5339,7 @@
       <c r="D262" s="1"/>
       <c r="E262" s="1"/>
       <c r="F262" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5324,14 +5348,14 @@
         <v>8</v>
       </c>
       <c r="B263" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>S50</v>
       </c>
       <c r="C263" t="s">
         <v>12</v>
       </c>
       <c r="F263" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5340,7 +5364,7 @@
         <v>8</v>
       </c>
       <c r="B264" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>S50</v>
       </c>
       <c r="C264" t="s">
@@ -5349,7 +5373,7 @@
       <c r="D264" s="1"/>
       <c r="E264" s="1"/>
       <c r="F264" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5358,7 +5382,7 @@
         <v>8</v>
       </c>
       <c r="B265" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>S50</v>
       </c>
       <c r="C265" t="s">
@@ -5367,7 +5391,7 @@
       <c r="D265" s="1"/>
       <c r="E265" s="1"/>
       <c r="F265" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5376,7 +5400,7 @@
         <v>8</v>
       </c>
       <c r="B266" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>S50</v>
       </c>
       <c r="C266" t="s">
@@ -5385,7 +5409,7 @@
       <c r="D266" s="1"/>
       <c r="E266" s="1"/>
       <c r="F266" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5394,14 +5418,14 @@
         <v>8</v>
       </c>
       <c r="B267" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>S50</v>
       </c>
       <c r="C267" t="s">
         <v>16</v>
       </c>
       <c r="F267" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5410,14 +5434,14 @@
         <v>6</v>
       </c>
       <c r="B268" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>S50</v>
       </c>
       <c r="C268" t="s">
         <v>10</v>
       </c>
       <c r="F268" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5426,14 +5450,14 @@
         <v>6</v>
       </c>
       <c r="B269" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>S50</v>
       </c>
       <c r="C269" t="s">
         <v>11</v>
       </c>
       <c r="F269" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5442,7 +5466,7 @@
         <v>6</v>
       </c>
       <c r="B270" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>S50</v>
       </c>
       <c r="C270" t="s">
@@ -5455,7 +5479,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F270" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -5464,7 +5488,7 @@
         <v>6</v>
       </c>
       <c r="B271" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>S50</v>
       </c>
       <c r="C271" t="s">
@@ -5477,7 +5501,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F271" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -5486,7 +5510,7 @@
         <v>6</v>
       </c>
       <c r="B272" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>S50</v>
       </c>
       <c r="C272" t="s">
@@ -5499,7 +5523,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F272" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -5508,7 +5532,7 @@
         <v>6</v>
       </c>
       <c r="B273" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>S50</v>
       </c>
       <c r="C273" t="s">
@@ -5517,7 +5541,7 @@
       <c r="D273" s="1"/>
       <c r="E273" s="1"/>
       <c r="F273" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5526,14 +5550,14 @@
         <v>6</v>
       </c>
       <c r="B274" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>S50</v>
       </c>
       <c r="C274" t="s">
         <v>16</v>
       </c>
       <c r="F274" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5554,7 +5578,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F275" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -5563,7 +5587,7 @@
         <v>5</v>
       </c>
       <c r="B276" t="str">
-        <f t="shared" ref="B276:B281" si="5">B275</f>
+        <f t="shared" ref="B276:B281" si="7">B275</f>
         <v>S50</v>
       </c>
       <c r="C276" t="s">
@@ -5576,7 +5600,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F276" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -5585,7 +5609,7 @@
         <v>5</v>
       </c>
       <c r="B277" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>S50</v>
       </c>
       <c r="C277" t="s">
@@ -5594,7 +5618,7 @@
       <c r="D277" s="1"/>
       <c r="E277" s="1"/>
       <c r="F277" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5603,14 +5627,14 @@
         <v>5</v>
       </c>
       <c r="B278" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>S50</v>
       </c>
       <c r="C278" t="s">
         <v>13</v>
       </c>
       <c r="F278" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5619,14 +5643,14 @@
         <v>5</v>
       </c>
       <c r="B279" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>S50</v>
       </c>
       <c r="C279" t="s">
         <v>14</v>
       </c>
       <c r="F279" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5635,7 +5659,7 @@
         <v>5</v>
       </c>
       <c r="B280" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>S50</v>
       </c>
       <c r="C280" t="s">
@@ -5648,7 +5672,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F280" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -5657,7 +5681,7 @@
         <v>5</v>
       </c>
       <c r="B281" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="7"/>
         <v>S50</v>
       </c>
       <c r="C281" t="s">
@@ -5670,7 +5694,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="F281" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.12499999999999994</v>
       </c>
     </row>
@@ -5685,7 +5709,7 @@
         <v>10</v>
       </c>
       <c r="F282" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5694,7 +5718,7 @@
         <v>7</v>
       </c>
       <c r="B283" t="str">
-        <f t="shared" ref="B283:B302" si="6">B282</f>
+        <f t="shared" ref="B283:B302" si="8">B282</f>
         <v>S51</v>
       </c>
       <c r="C283" t="s">
@@ -5707,7 +5731,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F283" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
@@ -5716,7 +5740,7 @@
         <v>7</v>
       </c>
       <c r="B284" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>S51</v>
       </c>
       <c r="C284" t="s">
@@ -5729,7 +5753,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F284" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.35416666666666663</v>
       </c>
     </row>
@@ -5738,7 +5762,7 @@
         <v>7</v>
       </c>
       <c r="B285" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>S51</v>
       </c>
       <c r="C285" t="s">
@@ -5751,7 +5775,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F285" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
@@ -5760,7 +5784,7 @@
         <v>7</v>
       </c>
       <c r="B286" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>S51</v>
       </c>
       <c r="C286" t="s">
@@ -5773,7 +5797,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F286" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
@@ -5782,7 +5806,7 @@
         <v>7</v>
       </c>
       <c r="B287" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>S51</v>
       </c>
       <c r="C287" t="s">
@@ -5795,7 +5819,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F287" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -5804,14 +5828,14 @@
         <v>7</v>
       </c>
       <c r="B288" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>S51</v>
       </c>
       <c r="C288" t="s">
         <v>16</v>
       </c>
       <c r="F288" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5820,7 +5844,7 @@
         <v>8</v>
       </c>
       <c r="B289" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>S51</v>
       </c>
       <c r="C289" t="s">
@@ -5833,7 +5857,7 @@
         <v>0.75</v>
       </c>
       <c r="F289" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.27083333333333331</v>
       </c>
     </row>
@@ -5842,7 +5866,7 @@
         <v>8</v>
       </c>
       <c r="B290" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>S51</v>
       </c>
       <c r="C290" t="s">
@@ -5851,7 +5875,7 @@
       <c r="D290" s="1"/>
       <c r="E290" s="1"/>
       <c r="F290" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5860,7 +5884,7 @@
         <v>8</v>
       </c>
       <c r="B291" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>S51</v>
       </c>
       <c r="C291" t="s">
@@ -5873,7 +5897,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F291" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.35416666666666663</v>
       </c>
     </row>
@@ -5882,7 +5906,7 @@
         <v>8</v>
       </c>
       <c r="B292" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>S51</v>
       </c>
       <c r="C292" t="s">
@@ -5895,7 +5919,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F292" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
@@ -5904,7 +5928,7 @@
         <v>8</v>
       </c>
       <c r="B293" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>S51</v>
       </c>
       <c r="C293" t="s">
@@ -5917,7 +5941,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F293" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.35416666666666663</v>
       </c>
     </row>
@@ -5926,7 +5950,7 @@
         <v>8</v>
       </c>
       <c r="B294" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>S51</v>
       </c>
       <c r="C294" t="s">
@@ -5939,7 +5963,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F294" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -5948,14 +5972,14 @@
         <v>8</v>
       </c>
       <c r="B295" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>S51</v>
       </c>
       <c r="C295" t="s">
         <v>16</v>
       </c>
       <c r="F295" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5964,14 +5988,14 @@
         <v>6</v>
       </c>
       <c r="B296" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>S51</v>
       </c>
       <c r="C296" t="s">
         <v>10</v>
       </c>
       <c r="F296" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5980,14 +6004,14 @@
         <v>6</v>
       </c>
       <c r="B297" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>S51</v>
       </c>
       <c r="C297" t="s">
         <v>11</v>
       </c>
       <c r="F297" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
     </row>
@@ -5996,7 +6020,7 @@
         <v>6</v>
       </c>
       <c r="B298" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>S51</v>
       </c>
       <c r="C298" t="s">
@@ -6005,7 +6029,7 @@
       <c r="D298" s="1"/>
       <c r="E298" s="1"/>
       <c r="F298" s="1">
-        <f t="shared" ref="F298:F309" si="7">E298-D298</f>
+        <f t="shared" ref="F298:F309" si="9">E298-D298</f>
         <v>0</v>
       </c>
     </row>
@@ -6014,7 +6038,7 @@
         <v>6</v>
       </c>
       <c r="B299" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>S51</v>
       </c>
       <c r="C299" t="s">
@@ -6027,7 +6051,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F299" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -6036,7 +6060,7 @@
         <v>6</v>
       </c>
       <c r="B300" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>S51</v>
       </c>
       <c r="C300" t="s">
@@ -6049,7 +6073,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F300" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -6058,7 +6082,7 @@
         <v>6</v>
       </c>
       <c r="B301" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>S51</v>
       </c>
       <c r="C301" t="s">
@@ -6071,7 +6095,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F301" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -6080,14 +6104,14 @@
         <v>6</v>
       </c>
       <c r="B302" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>S51</v>
       </c>
       <c r="C302" t="s">
         <v>16</v>
       </c>
       <c r="F302" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -6108,7 +6132,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F303" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -6117,7 +6141,7 @@
         <v>5</v>
       </c>
       <c r="B304" t="str">
-        <f t="shared" ref="B304:B309" si="8">B303</f>
+        <f t="shared" ref="B304:B309" si="10">B303</f>
         <v>S51</v>
       </c>
       <c r="C304" t="s">
@@ -6130,7 +6154,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F304" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -6139,7 +6163,7 @@
         <v>5</v>
       </c>
       <c r="B305" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>S51</v>
       </c>
       <c r="C305" t="s">
@@ -6152,7 +6176,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F305" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -6161,14 +6185,14 @@
         <v>5</v>
       </c>
       <c r="B306" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>S51</v>
       </c>
       <c r="C306" t="s">
         <v>13</v>
       </c>
       <c r="F306" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -6177,14 +6201,14 @@
         <v>5</v>
       </c>
       <c r="B307" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>S51</v>
       </c>
       <c r="C307" t="s">
         <v>14</v>
       </c>
       <c r="F307" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -6193,7 +6217,7 @@
         <v>5</v>
       </c>
       <c r="B308" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>S51</v>
       </c>
       <c r="C308" t="s">
@@ -6202,7 +6226,7 @@
       <c r="D308" s="1"/>
       <c r="E308" s="1"/>
       <c r="F308" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
@@ -6211,7 +6235,7 @@
         <v>5</v>
       </c>
       <c r="B309" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="10"/>
         <v>S51</v>
       </c>
       <c r="C309" t="s">
@@ -6224,7 +6248,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="F309" s="1">
-        <f t="shared" si="7"/>
+        <f t="shared" si="9"/>
         <v>0.12499999999999994</v>
       </c>
     </row>
@@ -6254,7 +6278,7 @@
         <v>5</v>
       </c>
       <c r="B311" t="str">
-        <f t="shared" ref="B311:B337" si="9">B310</f>
+        <f t="shared" ref="B311:B337" si="11">B310</f>
         <v>S52</v>
       </c>
       <c r="C311" t="s">
@@ -6267,7 +6291,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F311" s="1">
-        <f t="shared" ref="F311:F337" si="10">E311-D311</f>
+        <f t="shared" ref="F311:F337" si="12">E311-D311</f>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -6276,7 +6300,7 @@
         <v>5</v>
       </c>
       <c r="B312" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>S52</v>
       </c>
       <c r="C312" t="s">
@@ -6289,7 +6313,7 @@
         <v>0.75</v>
       </c>
       <c r="F312" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.33333333333333331</v>
       </c>
     </row>
@@ -6298,7 +6322,7 @@
         <v>5</v>
       </c>
       <c r="B313" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>S52</v>
       </c>
       <c r="C313" t="s">
@@ -6307,7 +6331,7 @@
       <c r="D313" s="1"/>
       <c r="E313" s="1"/>
       <c r="F313" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -6316,7 +6340,7 @@
         <v>5</v>
       </c>
       <c r="B314" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>S52</v>
       </c>
       <c r="C314" t="s">
@@ -6325,7 +6349,7 @@
       <c r="D314" s="1"/>
       <c r="E314" s="1"/>
       <c r="F314" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -6334,7 +6358,7 @@
         <v>5</v>
       </c>
       <c r="B315" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>S52</v>
       </c>
       <c r="C315" t="s">
@@ -6343,7 +6367,7 @@
       <c r="D315" s="1"/>
       <c r="E315" s="1"/>
       <c r="F315" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -6352,7 +6376,7 @@
         <v>5</v>
       </c>
       <c r="B316" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>S52</v>
       </c>
       <c r="C316" t="s">
@@ -6365,7 +6389,7 @@
         <v>0.54166666666666663</v>
       </c>
       <c r="F316" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.12499999999999994</v>
       </c>
     </row>
@@ -6374,7 +6398,7 @@
         <v>6</v>
       </c>
       <c r="B317" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>S52</v>
       </c>
       <c r="C317" t="s">
@@ -6383,7 +6407,7 @@
       <c r="D317" s="1"/>
       <c r="E317" s="1"/>
       <c r="F317" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -6392,7 +6416,7 @@
         <v>6</v>
       </c>
       <c r="B318" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>S52</v>
       </c>
       <c r="C318" t="s">
@@ -6401,7 +6425,7 @@
       <c r="D318" s="1"/>
       <c r="E318" s="1"/>
       <c r="F318" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -6410,7 +6434,7 @@
         <v>6</v>
       </c>
       <c r="B319" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>S52</v>
       </c>
       <c r="C319" t="s">
@@ -6419,7 +6443,7 @@
       <c r="D319" s="1"/>
       <c r="E319" s="1"/>
       <c r="F319" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -6428,7 +6452,7 @@
         <v>6</v>
       </c>
       <c r="B320" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>S52</v>
       </c>
       <c r="C320" t="s">
@@ -6437,7 +6461,7 @@
       <c r="D320" s="1"/>
       <c r="E320" s="1"/>
       <c r="F320" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -6446,7 +6470,7 @@
         <v>6</v>
       </c>
       <c r="B321" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>S52</v>
       </c>
       <c r="C321" t="s">
@@ -6459,7 +6483,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F321" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -6468,7 +6492,7 @@
         <v>6</v>
       </c>
       <c r="B322" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>S52</v>
       </c>
       <c r="C322" t="s">
@@ -6481,7 +6505,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F322" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -6490,7 +6514,7 @@
         <v>6</v>
       </c>
       <c r="B323" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>S52</v>
       </c>
       <c r="C323" t="s">
@@ -6499,7 +6523,7 @@
       <c r="D323" s="1"/>
       <c r="E323" s="1"/>
       <c r="F323" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -6508,7 +6532,7 @@
         <v>8</v>
       </c>
       <c r="B324" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>S52</v>
       </c>
       <c r="C324" t="s">
@@ -6517,7 +6541,7 @@
       <c r="D324" s="1"/>
       <c r="E324" s="1"/>
       <c r="F324" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -6526,7 +6550,7 @@
         <v>8</v>
       </c>
       <c r="B325" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>S52</v>
       </c>
       <c r="C325" t="s">
@@ -6539,7 +6563,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F325" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
@@ -6548,7 +6572,7 @@
         <v>8</v>
       </c>
       <c r="B326" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>S52</v>
       </c>
       <c r="C326" t="s">
@@ -6561,7 +6585,7 @@
         <v>0.75</v>
       </c>
       <c r="F326" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.3125</v>
       </c>
     </row>
@@ -6570,7 +6594,7 @@
         <v>8</v>
       </c>
       <c r="B327" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>S52</v>
       </c>
       <c r="C327" t="s">
@@ -6579,7 +6603,7 @@
       <c r="D327" s="1"/>
       <c r="E327" s="1"/>
       <c r="F327" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -6588,7 +6612,7 @@
         <v>8</v>
       </c>
       <c r="B328" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>S52</v>
       </c>
       <c r="C328" t="s">
@@ -6601,7 +6625,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F328" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.35416666666666663</v>
       </c>
     </row>
@@ -6610,7 +6634,7 @@
         <v>8</v>
       </c>
       <c r="B329" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>S52</v>
       </c>
       <c r="C329" t="s">
@@ -6623,7 +6647,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F329" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -6632,7 +6656,7 @@
         <v>8</v>
       </c>
       <c r="B330" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>S52</v>
       </c>
       <c r="C330" t="s">
@@ -6641,7 +6665,7 @@
       <c r="D330" s="1"/>
       <c r="E330" s="1"/>
       <c r="F330" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -6650,7 +6674,7 @@
         <v>7</v>
       </c>
       <c r="B331" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>S52</v>
       </c>
       <c r="C331" t="s">
@@ -6663,7 +6687,7 @@
         <v>0.75</v>
       </c>
       <c r="F331" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.27083333333333331</v>
       </c>
     </row>
@@ -6672,7 +6696,7 @@
         <v>7</v>
       </c>
       <c r="B332" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>S52</v>
       </c>
       <c r="C332" t="s">
@@ -6681,7 +6705,7 @@
       <c r="D332" s="1"/>
       <c r="E332" s="1"/>
       <c r="F332" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -6690,7 +6714,7 @@
         <v>7</v>
       </c>
       <c r="B333" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>S52</v>
       </c>
       <c r="C333" t="s">
@@ -6703,7 +6727,7 @@
         <v>0.75</v>
       </c>
       <c r="F333" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.3125</v>
       </c>
     </row>
@@ -6712,7 +6736,7 @@
         <v>7</v>
       </c>
       <c r="B334" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>S52</v>
       </c>
       <c r="C334" t="s">
@@ -6721,7 +6745,7 @@
       <c r="D334" s="1"/>
       <c r="E334" s="1"/>
       <c r="F334" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
@@ -6730,7 +6754,7 @@
         <v>7</v>
       </c>
       <c r="B335" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>S52</v>
       </c>
       <c r="C335" t="s">
@@ -6743,7 +6767,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F335" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.31249999999999994</v>
       </c>
     </row>
@@ -6752,7 +6776,7 @@
         <v>7</v>
       </c>
       <c r="B336" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>S52</v>
       </c>
       <c r="C336" t="s">
@@ -6765,7 +6789,7 @@
         <v>0.79166666666666663</v>
       </c>
       <c r="F336" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0.37499999999999994</v>
       </c>
     </row>
@@ -6774,7 +6798,7 @@
         <v>7</v>
       </c>
       <c r="B337" t="str">
-        <f t="shared" si="9"/>
+        <f t="shared" si="11"/>
         <v>S52</v>
       </c>
       <c r="C337" t="s">
@@ -6783,7 +6807,7 @@
       <c r="D337" s="1"/>
       <c r="E337" s="1"/>
       <c r="F337" s="1">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>0</v>
       </c>
     </row>
